--- a/stockwellExample/RawInputData/A-Phase-2.xlsx
+++ b/stockwellExample/RawInputData/A-Phase-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ttcd\Documents\MATLAB\PetriNetSimulate\stockwellExample\RawInputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68DDFF0-9ED4-44D2-B1C1-BDE36317BCD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB78271-DA8E-4964-A003-1E37468BC810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -447,7 +447,7 @@
   <dimension ref="E1:AK32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1"/>
+      <selection activeCell="AE5" sqref="AE5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,7 +530,7 @@
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
       <c r="AC2">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="AD2">
         <v>201</v>
@@ -563,9 +563,8 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
       <c r="AC3">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="AD3">
         <v>202</v>
@@ -603,9 +602,8 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
       <c r="AC4">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="AD4">
         <v>203</v>
@@ -643,9 +641,8 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
       <c r="AC5">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="AD5">
         <v>204</v>
@@ -683,9 +680,8 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
       <c r="AC6">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="AD6">
         <v>205</v>
@@ -723,9 +719,8 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
       <c r="AC7">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="AD7">
         <v>206</v>
@@ -763,9 +758,8 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
       <c r="AC8">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="AD8">
         <v>207</v>
@@ -808,9 +802,8 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
       <c r="AC9">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="AD9">
         <v>208</v>
@@ -853,9 +846,8 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
       <c r="AC10">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="AD10">
         <v>209</v>
@@ -1557,6 +1549,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007EAC084835D24746A54539AB1A640141" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3ebb060845e59801059c2b1bac358d5a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="db6488ae-1ae9-46d0-aa9c-9ac0f238754f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0cd10c274c4ff223c6b05d03a044ab7d" ns2:_="">
     <xsd:import namespace="db6488ae-1ae9-46d0-aa9c-9ac0f238754f"/>
@@ -1728,15 +1729,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27DC48AF-63EF-45FF-85AF-DBCA5E248184}">
   <ds:schemaRefs>
@@ -1747,6 +1739,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4DAEFA2-DFAE-4956-BC40-192A315D1E84}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{843A350D-2ED9-4AD7-A379-4AD9F5DEF153}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1762,12 +1762,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4DAEFA2-DFAE-4956-BC40-192A315D1E84}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>